--- a/Raw files GPS/Raw files GPS Zagłębie/wtorek/wyniki/wyniki_średnie.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wtorek/wyniki/wyniki_średnie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Trening</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Acceleration_SMA</t>
         </is>
       </c>
@@ -451,18 +456,58 @@
           <t>10-15</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>3.925750268684639</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3.841688387559884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3.389416957949544</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>5-10</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>3.350359798132719</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3.266047984689147</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2.928736258011598</v>
       </c>
     </row>
   </sheetData>
